--- a/PabloArriagada/poverty_inequality_dataexplorer/WID/Percentile names.xlsx
+++ b/PabloArriagada/poverty_inequality_dataexplorer/WID/Percentile names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Google Drive\OWID\notebooks\poverty_inequality_dataexplorer\WID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Google Drive OWID\notebooks\PabloArriagada\poverty_inequality_dataexplorer\WID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58357560-7AFB-4B3D-9FA0-C4B95F17079E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391B0F4-6E43-483D-8A12-86416DC8F7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{850EDBB3-6C12-4D21-9CAD-062574D9D5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
   <si>
     <t>p0</t>
   </si>
@@ -800,13 +800,22 @@
   </si>
   <si>
     <t>p99.999p100</t>
+  </si>
+  <si>
+    <t>p99p100</t>
+  </si>
+  <si>
+    <t>p99.9p100</t>
+  </si>
+  <si>
+    <t>p99.99p100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +825,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -841,8 +857,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A94EBB-AF1D-4315-97E1-31F35AB56513}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C127"/>
+      <selection activeCell="C1" sqref="C1:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1970,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C127" si="1">A66&amp;B66</f>
+        <f t="shared" ref="C66:C130" si="1">A66&amp;B66</f>
         <v>p65p66</v>
       </c>
     </row>
@@ -2354,337 +2371,373 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" t="str">
-        <f t="shared" si="1"/>
-        <v>p99p99.1</v>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p99p100</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
-        <v>p99.1p99.2</v>
+        <v>p99p99.1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
-        <v>103</v>
-      </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
-        <v>p99.2p99.3</v>
+        <v>p99.1p99.2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
-        <v>104</v>
-      </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
-        <v>p99.3p99.4</v>
+        <v>p99.2p99.3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
-        <v>p99.4p99.5</v>
+        <v>p99.3p99.4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
-        <v>106</v>
-      </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
-        <v>p99.5p99.6</v>
+        <v>p99.4p99.5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
-        <v>p99.6p99.7</v>
+        <v>p99.5p99.6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
-        <v>p99.7p99.8</v>
+        <v>p99.6p99.7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
-        <v>p99.8p99.9</v>
+        <v>p99.7p99.8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
-        <v>p99.9p99.91</v>
+        <v>p99.8p99.9</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" t="str">
-        <f t="shared" si="1"/>
-        <v>p99.91p99.92</v>
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.9p100</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
-        <v>p99.92p99.93</v>
+        <v>p99.9p99.91</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
-        <v>p99.93p99.94</v>
+        <v>p99.91p99.92</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
-        <v>p99.94p99.95</v>
+        <v>p99.92p99.93</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
-        <v>p99.95p99.96</v>
+        <v>p99.93p99.94</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
-        <v>p99.96p99.97</v>
+        <v>p99.94p99.95</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
-        <v>p99.97p99.98</v>
+        <v>p99.95p99.96</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
-        <v>p99.98p99.99</v>
+        <v>p99.96p99.97</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
-        <v>p99.99p99.991</v>
+        <v>p99.97p99.98</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
-        <v>p99.991p99.992</v>
+        <v>p99.98p99.99</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" t="str">
-        <f t="shared" si="1"/>
-        <v>p99.992p99.993</v>
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.99p100</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
-        <v>p99.993p99.994</v>
+        <v>p99.99p99.991</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
-        <v>p99.994p99.995</v>
+        <v>p99.991p99.992</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
-        <v>p99.995p99.996</v>
+        <v>p99.992p99.993</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
-        <v>p99.996p99.997</v>
+        <v>p99.993p99.994</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
-        <v>p99.997p99.998</v>
+        <v>p99.994p99.995</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
-        <v>p99.998p99.999</v>
+        <v>p99.995p99.996</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.996p99.997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.997p99.998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.998p99.999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C127" t="str">
+      <c r="C130" s="1" t="str">
         <f t="shared" si="1"/>
         <v>p99.999p100</v>
       </c>
@@ -2692,20 +2745,21 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A27042-264C-4807-90F3-6ED32E8E1F89}">
-  <dimension ref="A1:DW1"/>
+  <dimension ref="A1:DZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+      <selection sqref="A1:DZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:127" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -3003,88 +3057,97 @@
       <c r="CU1" t="s">
         <v>226</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CW1" t="s">
         <v>227</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>228</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>229</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>230</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>231</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>232</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>233</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>234</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>235</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DG1" t="s">
         <v>236</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>237</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>238</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>239</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>240</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>241</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>242</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>243</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>244</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DQ1" t="s">
         <v>245</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DR1" t="s">
         <v>246</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DS1" t="s">
         <v>247</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DT1" t="s">
         <v>248</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DU1" t="s">
         <v>249</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DV1" t="s">
         <v>250</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DW1" t="s">
         <v>251</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DX1" t="s">
         <v>252</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DY1" t="s">
         <v>253</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>254</v>
       </c>
     </row>

--- a/PabloArriagada/poverty_inequality_dataexplorer/WID/Percentile names.xlsx
+++ b/PabloArriagada/poverty_inequality_dataexplorer/WID/Percentile names.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Google Drive OWID\notebooks\PabloArriagada\poverty_inequality_dataexplorer\WID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391B0F4-6E43-483D-8A12-86416DC8F7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64930AEE-7A1F-4B93-94E2-0DA6854A2D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{850EDBB3-6C12-4D21-9CAD-062574D9D5A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{850EDBB3-6C12-4D21-9CAD-062574D9D5A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="130 quantiles" sheetId="1" r:id="rId1"/>
+    <sheet name="130 quantiles transposed" sheetId="2" r:id="rId2"/>
+    <sheet name="percentiles" sheetId="3" r:id="rId3"/>
+    <sheet name="tenths" sheetId="4" r:id="rId4"/>
+    <sheet name="hundreds" sheetId="5" r:id="rId5"/>
+    <sheet name="thousands" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="261">
   <si>
     <t>p0</t>
   </si>
@@ -809,6 +813,15 @@
   </si>
   <si>
     <t>p99.99p100</t>
+  </si>
+  <si>
+    <t>pX</t>
+  </si>
+  <si>
+    <t>pY</t>
+  </si>
+  <si>
+    <t>pXpY</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A94EBB-AF1D-4315-97E1-31F35AB56513}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C130"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection sqref="A1:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2753,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A27042-264C-4807-90F3-6ED32E8E1F89}">
   <dimension ref="A1:DZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
-      <selection sqref="A1:DZ1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="DG20" sqref="DG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,4 +3167,5556 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2F1F32-C7D2-48C8-B39C-A17A9DA63B18}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>p0p1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>p1p2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>p2p3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>p3p4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>p4p5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>p5p6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>p6p7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>p7p8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>p8p9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>p9p10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>p10p11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>p11p12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>p12p13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>p13p14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>p14p15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>p15p16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>p16p17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>p17p18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>p18p19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>p19p20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>p20p21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>p21p22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>p22p23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>p23p24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>p24p25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>p25p26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>p26p27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>p27p28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>p28p29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>p29p30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>p30p31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>p31p32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>p32p33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>p33p34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>p34p35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>p35p36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>p36p37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>p37p38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>p38p39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>p39p40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>p40p41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>p41p42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>p42p43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>p43p44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>p44p45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>p45p46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>p46p47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>p47p48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>p48p49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>p49p50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>p50p51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>p51p52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>p52p53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>p53p54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>p54p55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>p55p56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>p56p57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>p57p58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>p58p59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>p59p60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>p60p61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>p61p62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>p62p63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>p63p64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>p64p65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C101" si="1">A67&amp;B67</f>
+        <v>p65p66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>p66p67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>p67p68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>p68p69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>p69p70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>p70p71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>p71p72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>p72p73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>p73p74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>p74p75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>p75p76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>p76p77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>p77p78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>p78p79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>p79p80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>p80p81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>p81p82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>p82p83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>p83p84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>p84p85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>p85p86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>p86p87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>p87p88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>p88p89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>p89p90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>p90p91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>p91p92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>p92p93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>p93p94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>p94p95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>p95p96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>p96p97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>p97p98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>p98p99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p99p100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4D50A3-711D-4760-9463-DBA690FFBDE9}">
+  <dimension ref="A1:C110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>p0p1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>p1p2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>p2p3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>p3p4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>p4p5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>p5p6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>p6p7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>p7p8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>p8p9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>p9p10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>p10p11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>p11p12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>p12p13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>p13p14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>p14p15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>p15p16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>p16p17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>p17p18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>p18p19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>p19p20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>p20p21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>p21p22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>p22p23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>p23p24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>p24p25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>p25p26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>p26p27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>p27p28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>p28p29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>p29p30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>p30p31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>p31p32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>p32p33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>p33p34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>p34p35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>p35p36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>p36p37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>p37p38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>p38p39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>p39p40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>p40p41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>p41p42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>p42p43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>p43p44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>p44p45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>p45p46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>p46p47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>p47p48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>p48p49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>p49p50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>p50p51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>p51p52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>p52p53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>p53p54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>p54p55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>p55p56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>p56p57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>p57p58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>p58p59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>p59p60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>p60p61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>p61p62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>p62p63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>p63p64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>p64p65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C110" si="1">A67&amp;B67</f>
+        <v>p65p66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>p66p67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>p67p68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>p68p69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>p69p70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>p70p71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>p71p72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>p72p73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>p73p74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>p74p75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>p75p76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>p76p77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>p77p78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>p78p79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>p79p80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>p80p81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>p81p82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>p82p83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>p83p84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>p84p85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>p85p86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>p86p87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>p87p88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>p88p89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>p89p90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>p90p91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>p91p92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>p92p93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>p93p94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>p94p95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>p95p96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>p96p97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>p97p98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>p98p99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>p99p99.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.1p99.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.2p99.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.3p99.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.4p99.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.5p99.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.6p99.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.7p99.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.8p99.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.9p100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B50567D-5962-486B-AE0A-278D5F495020}">
+  <dimension ref="A1:C119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>p0p1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>p1p2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>p2p3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>p3p4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>p4p5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>p5p6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>p6p7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>p7p8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>p8p9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>p9p10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>p10p11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>p11p12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>p12p13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>p13p14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>p14p15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>p15p16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>p16p17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>p17p18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>p18p19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>p19p20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>p20p21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>p21p22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>p22p23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>p23p24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>p24p25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>p25p26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>p26p27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>p27p28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>p28p29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>p29p30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>p30p31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>p31p32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>p32p33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>p33p34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>p34p35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>p35p36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>p36p37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>p37p38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>p38p39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>p39p40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>p40p41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>p41p42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>p42p43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>p43p44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>p44p45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>p45p46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>p46p47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>p47p48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>p48p49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>p49p50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>p50p51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>p51p52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>p52p53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>p53p54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>p54p55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>p55p56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>p56p57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>p57p58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>p58p59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>p59p60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>p60p61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>p61p62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>p62p63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>p63p64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>p64p65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C119" si="1">A67&amp;B67</f>
+        <v>p65p66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>p66p67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>p67p68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>p68p69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>p69p70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>p70p71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>p71p72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>p72p73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>p73p74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>p74p75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>p75p76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>p76p77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>p77p78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>p78p79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>p79p80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>p80p81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>p81p82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>p82p83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>p83p84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>p84p85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>p85p86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>p86p87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>p87p88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>p88p89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>p89p90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>p90p91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>p91p92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>p92p93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>p93p94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>p94p95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>p95p96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>p96p97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>p97p98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>p98p99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>p99p99.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.1p99.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.2p99.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.3p99.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.4p99.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.5p99.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.6p99.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.7p99.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.8p99.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.9p99.91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.91p99.92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.92p99.93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.93p99.94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.94p99.95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.95p99.96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.96p99.97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.97p99.98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.98p99.99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.99p100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64343F3-7B40-4253-A25A-3F0A80DCC247}">
+  <dimension ref="A1:C128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>p0p1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>p1p2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>p2p3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>p3p4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>p4p5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>p5p6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>p6p7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>p7p8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>p8p9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>p9p10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>p10p11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>p11p12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>p12p13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>p13p14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>p14p15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>p15p16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>p16p17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>p17p18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>p18p19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>p19p20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>p20p21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>p21p22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>p22p23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>p23p24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>p24p25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>p25p26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>p26p27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>p27p28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>p28p29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>p29p30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>p30p31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>p31p32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>p32p33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>p33p34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>p34p35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>p35p36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>p36p37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>p37p38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>p38p39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>p39p40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>p40p41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>p41p42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>p42p43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>p43p44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>p44p45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>p45p46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>p46p47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>p47p48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>p48p49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>p49p50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>p50p51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>p51p52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>p52p53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>p53p54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>p54p55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>p55p56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>p56p57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>p57p58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>p58p59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>p59p60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>p60p61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>p61p62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>p62p63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>p63p64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>p64p65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C128" si="1">A67&amp;B67</f>
+        <v>p65p66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>p66p67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>p67p68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>p68p69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>p69p70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>p70p71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>p71p72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>p72p73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>p73p74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>p74p75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>p75p76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>p76p77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>p77p78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>p78p79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>p79p80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>p80p81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>p81p82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>p82p83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>p83p84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>p84p85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>p85p86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>p86p87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>p87p88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>p88p89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>p89p90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>p90p91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>p91p92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>p92p93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>p93p94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>p94p95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>p95p96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>p96p97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>p97p98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>p98p99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>p99p99.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.1p99.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.2p99.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.3p99.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.4p99.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.5p99.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.6p99.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.7p99.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.8p99.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.9p99.91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.91p99.92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.92p99.93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.93p99.94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.94p99.95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.95p99.96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.96p99.97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.97p99.98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.98p99.99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.99p99.991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.991p99.992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.992p99.993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.993p99.994</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.994p99.995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.995p99.996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.996p99.997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.997p99.998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.998p99.999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p99.999p100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>